--- a/PruebaFechaCorrecta.xlsx
+++ b/PruebaFechaCorrecta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Orjuela\Documents\Temp\importador-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{051BCE3D-9E36-4980-A0E4-EC94F0DD6A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C1B5E-E7E0-4C73-A79B-3F428B07081C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{8AA5B533-058B-4AFB-9817-99C3129CBDE7}"/>
   </bookViews>
@@ -398,10 +398,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
